--- a/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.890858626285377</v>
+        <v>8.882100944369791</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.356841701273797</v>
+        <v>4.2872102579276</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.301251211268261</v>
+        <v>-2.141132641554663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.850762839685316</v>
+        <v>-5.424592857735608</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3252965071437142</v>
+        <v>0.3285029451984522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1200932920426702</v>
+        <v>0.1177933522492995</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03906016349635409</v>
+        <v>-0.06083012704832817</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1582704996155921</v>
+        <v>-0.1877781228866509</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.18767971647253</v>
+        <v>20.16655720131392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.12323698055349</v>
+        <v>17.14632332651421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.34116322620855</v>
+        <v>11.27440688312291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.42727403457429</v>
+        <v>13.58146016301994</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9152987237296306</v>
+        <v>0.9286599573473202</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5681555498388962</v>
+        <v>0.5677436335651537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.379094403638323</v>
+        <v>0.3938232053502788</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7286648714145221</v>
+        <v>0.7048331185066109</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>11.72864525253494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.4250101507484727</v>
+        <v>-0.4250101507484783</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4564708136436074</v>
@@ -749,7 +749,7 @@
         <v>0.388918763084067</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.01577299274037873</v>
+        <v>-0.01577299274037894</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.868954806471224</v>
+        <v>8.225243302410336</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.435302938408216</v>
+        <v>2.780379512475464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.025746619465202</v>
+        <v>5.927210044332747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.601815319504025</v>
+        <v>-6.881242912427996</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.263471157686349</v>
+        <v>0.2470581428127175</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0810545272614093</v>
+        <v>0.06150768829526746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1803398661066281</v>
+        <v>0.1734959098772914</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2428930107336066</v>
+        <v>-0.2167714655867309</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.33866339768833</v>
+        <v>18.97901560216772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.55007651742713</v>
+        <v>14.54914232061327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.51145785079573</v>
+        <v>17.34320100484178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.408149060080827</v>
+        <v>6.724415679974022</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6820699312857486</v>
+        <v>0.665747005352568</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3892070921322153</v>
+        <v>0.3808772608516959</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6167944660941186</v>
+        <v>0.6297106991828153</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2844900959202039</v>
+        <v>0.2894157397687381</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>13.71274112777006</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.400589371568614</v>
+        <v>7.400589371568617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5154911901388431</v>
@@ -849,7 +849,7 @@
         <v>0.3761839939712754</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3053971646226298</v>
+        <v>0.30539716462263</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>13.31879736154206</v>
+        <v>13.38123505258378</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.388960804241149</v>
+        <v>9.014228730937887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.346054127664246</v>
+        <v>8.384720083458911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.556735542085935</v>
+        <v>2.125912149091514</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3444043689832173</v>
+        <v>0.3407639320595924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2025099225213793</v>
+        <v>0.1962701627889803</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2119883193849114</v>
+        <v>0.2185755547645958</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.09672799197211601</v>
+        <v>0.07849394796857036</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.38483882198241</v>
+        <v>24.37692105266956</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.58742221207597</v>
+        <v>20.42724418077138</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.10387292395751</v>
+        <v>18.53544688276826</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.38256263713678</v>
+        <v>11.99430958764302</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7259025459285263</v>
+        <v>0.7283681714707375</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5166422294702777</v>
+        <v>0.5002343048370279</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5746628959659084</v>
+        <v>0.5569154519381472</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5860884006079867</v>
+        <v>0.5449118345267858</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.726654978073809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.8896293588502</v>
+        <v>4.889629358850206</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3074823326467511</v>
@@ -949,7 +949,7 @@
         <v>0.1220402226098671</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.127703721202014</v>
+        <v>0.1277037212020141</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.599258338217066</v>
+        <v>9.330776291326446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.53396638687775</v>
+        <v>15.2758024454331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9791583756232508</v>
+        <v>0.5705323966102549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2272962932494392</v>
+        <v>-0.0932390617388953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1728143299382361</v>
+        <v>0.1699356001588045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2751186663852306</v>
+        <v>0.2776103479603275</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01537406002949315</v>
+        <v>0.009621075943974352</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.00769888292913473</v>
+        <v>-0.003214386518351474</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.48909915013837</v>
+        <v>22.00418549271336</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.14086516544579</v>
+        <v>26.69030990463765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.06261800327341</v>
+        <v>11.62398179564322</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.008238317617327</v>
+        <v>9.888187804946606</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4735759760473545</v>
+        <v>0.4644008023029476</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5349844653176175</v>
+        <v>0.5444331993109367</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2295265522511444</v>
+        <v>0.2215501747344102</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2502844744456507</v>
+        <v>0.281800842601445</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>15.97383771548064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.819060691332177</v>
+        <v>3.819060691332188</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04331572977073177</v>
@@ -1049,7 +1049,7 @@
         <v>0.2386810974741702</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.07426494397216825</v>
+        <v>0.07426494397216847</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.200607097590243</v>
+        <v>-2.621594970642136</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.49080458909149</v>
+        <v>5.206371662880498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.01454490867704</v>
+        <v>10.11314876895677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.261015116863632</v>
+        <v>-1.220376056183962</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03964657579414489</v>
+        <v>-0.03298001025218815</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05516651939597516</v>
+        <v>0.06353472543421247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1440083630781585</v>
+        <v>0.1484030442495308</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02195600871437233</v>
+        <v>-0.02215451663766687</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.155712731100122</v>
+        <v>8.929544501984408</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.5157580303756</v>
+        <v>16.10507805254164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.77077259426034</v>
+        <v>22.13361511771912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.669928056238998</v>
+        <v>8.90043227783412</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1246487529463718</v>
+        <v>0.1223626609242984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2096408017068336</v>
+        <v>0.2185919617209317</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3426165922033613</v>
+        <v>0.355122041323145</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1790379837403277</v>
+        <v>0.1826136851227269</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.810918940203349</v>
+        <v>7.079335298180749</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.999383748245222</v>
+        <v>-2.98938794438634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.345094486399506</v>
+        <v>-2.185228593904978</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.771699160417069</v>
+        <v>7.037365808314143</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08014930288528729</v>
+        <v>0.08300242027425378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03164739358351232</v>
+        <v>-0.03117778982565642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02544174617444777</v>
+        <v>-0.02415880586275274</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1194284312862843</v>
+        <v>0.1233781691853692</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.30425228052763</v>
+        <v>18.14937309630921</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.722727910069509</v>
+        <v>4.28551570452388</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.795169055573022</v>
+        <v>6.929299689152918</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.66382345399117</v>
+        <v>17.73253436440689</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2237802992383545</v>
+        <v>0.2375728601655229</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05132219086320131</v>
+        <v>0.04660971034652684</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08086625429139307</v>
+        <v>0.0811540048422647</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.355678863029001</v>
+        <v>0.350683556471602</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.134787284366747</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.355638401692607</v>
+        <v>4.355638401692596</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.030576673221177</v>
@@ -1249,7 +1249,7 @@
         <v>0.03346270500900643</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.06081194210753827</v>
+        <v>0.06081194210753811</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.446818852398125</v>
+        <v>-1.232100580640832</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9025359464961903</v>
+        <v>-1.065320655484429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1878333300023792</v>
+        <v>-0.4178347859616176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9348470283737165</v>
+        <v>-0.9197495717935822</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.01451650866455005</v>
+        <v>-0.01266372384699212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.008630798321876184</v>
+        <v>-0.0117859853755826</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.001794234420738748</v>
+        <v>-0.004061634106322421</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.01274654107470271</v>
+        <v>-0.01337208752148123</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.265274946094151</v>
+        <v>6.943819503225424</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.534707927166441</v>
+        <v>5.766709737866962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.380033170826668</v>
+        <v>6.190856264347087</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.266565654302889</v>
+        <v>9.52384000675012</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08178339311330048</v>
+        <v>0.07794583439538587</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05987303674922012</v>
+        <v>0.06240944978439375</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07017146307038961</v>
+        <v>0.0681399089523977</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1345997919722939</v>
+        <v>0.138783831154421</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>11.51821420740736</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6.690028481940424</v>
+        <v>6.690028481940419</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3257058095555859</v>
@@ -1349,7 +1349,7 @@
         <v>0.2205579748728734</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1690599174244742</v>
+        <v>0.1690599174244741</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>13.16139460562206</v>
+        <v>13.09675356709065</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>11.16224201342827</v>
+        <v>11.18381778181287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9.122124008269882</v>
+        <v>9.389557044034008</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.3448506925273</v>
+        <v>4.228004049743769</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2666472428326803</v>
+        <v>0.2663817673726508</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1954888196026765</v>
+        <v>0.1968137673649316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1702490914211436</v>
+        <v>0.1749809684107257</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1052609961000524</v>
+        <v>0.1032457727068987</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.88869789836028</v>
+        <v>17.92544788151794</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>15.6611846969553</v>
+        <v>16.00776443195184</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.9647070161437</v>
+        <v>13.95714138666214</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.91528508505772</v>
+        <v>9.010323541203334</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3831249424973286</v>
+        <v>0.383100304724415</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2869293908207215</v>
+        <v>0.296273160784856</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2734821446831717</v>
+        <v>0.2721966406274905</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2337127981824041</v>
+        <v>0.2357250941146675</v>
       </c>
     </row>
     <row r="28">
